--- a/lesson_01/Seznam pracovníků - aktualizováno k 14.11.2019.xlsx
+++ b/lesson_01/Seznam pracovníků - aktualizováno k 14.11.2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Python\Projekty\pytable\lesson_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NXF01925\Desktop\pytable\lesson_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A89AAE-B85C-41B7-8C62-EC5361931EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="27780" windowHeight="13020"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="seznam_pracovniku" sheetId="1" r:id="rId1"/>
@@ -144,28 +145,28 @@
     <t>Novotná</t>
   </si>
   <si>
-    <t>Osobní číslo</t>
-  </si>
-  <si>
-    <t>Jméno</t>
-  </si>
-  <si>
-    <t>Příjmení</t>
-  </si>
-  <si>
-    <t>Číslo oddělení</t>
-  </si>
-  <si>
-    <t>Číslo kanceláře</t>
-  </si>
-  <si>
-    <t>Telefonní číslo</t>
+    <t>Osobni cislo</t>
+  </si>
+  <si>
+    <t>Jmeno</t>
+  </si>
+  <si>
+    <t>Prijmeni</t>
+  </si>
+  <si>
+    <t>Cislo oddeleni</t>
+  </si>
+  <si>
+    <t>Cislo kancelare</t>
+  </si>
+  <si>
+    <t>Telefonni cislo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -916,48 +917,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % – Zvýraznění1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % – Zvýraznění2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % – Zvýraznění3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % – Zvýraznění4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % – Zvýraznění5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % – Zvýraznění6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Celkem" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Chybně" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Kontrolní buňka" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Nadpis 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Nadpis 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Nadpis 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Nadpis 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Název" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Neutrální" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
-    <cellStyle name="Poznámka" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Propojená buňka" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Správně" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Text upozornění" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Vstup" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Výpočet" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Výstup" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Vysvětlující text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Zvýraznění 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Zvýraznění 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Zvýraznění 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Zvýraznění 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Zvýraznění 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Zvýraznění 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,10 +1235,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
